--- a/Mifos Automation Excels/Client/2437-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DELETE-VAR-INST-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2437-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DELETE-VAR-INST-Makerepayment1.xlsx
@@ -576,7 +576,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,12 +625,12 @@
         <v>9235.4599999999991</v>
       </c>
       <c r="F2" s="6">
-        <v>964.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>629.85</v>
+        <v>720.4</v>
       </c>
       <c r="B3" s="6">
         <v>200</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>429.85</v>
+        <v>520.4</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -698,7 +698,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="F4" sqref="F4:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,6 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -840,9 +839,6 @@
       <c r="N3" s="6">
         <v>0</v>
       </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
@@ -852,21 +848,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>964.54</v>
+        <v>872.19</v>
       </c>
       <c r="G4" s="9">
-        <v>8270.92</v>
+        <v>8363.27</v>
       </c>
       <c r="H4" s="6">
-        <v>0</v>
+        <v>92.35</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -884,9 +880,6 @@
         <v>0</v>
       </c>
       <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
@@ -898,21 +891,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>872.19</v>
+        <v>880.91</v>
       </c>
       <c r="G5" s="9">
-        <v>7398.73</v>
+        <v>7482.36</v>
       </c>
       <c r="H5" s="6">
-        <v>92.35</v>
+        <v>83.63</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -930,9 +923,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
@@ -944,21 +934,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>890.55</v>
+        <v>889.72</v>
       </c>
       <c r="G6" s="9">
-        <v>6508.18</v>
+        <v>6592.64</v>
       </c>
       <c r="H6" s="6">
-        <v>73.989999999999995</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -976,9 +966,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
@@ -990,21 +977,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>899.46</v>
+        <v>898.61</v>
       </c>
       <c r="G7" s="9">
-        <v>5608.72</v>
+        <v>5694.03</v>
       </c>
       <c r="H7" s="6">
-        <v>65.08</v>
+        <v>65.930000000000007</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1022,9 +1009,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
@@ -1036,21 +1020,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>908.45</v>
+        <v>907.6</v>
       </c>
       <c r="G8" s="9">
-        <v>4700.2700000000004</v>
+        <v>4786.43</v>
       </c>
       <c r="H8" s="6">
-        <v>56.09</v>
+        <v>56.94</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1068,9 +1052,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
@@ -1085,18 +1066,18 @@
         <v>31</v>
       </c>
       <c r="C9" s="7">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>917.54</v>
+        <v>916.68</v>
       </c>
       <c r="G9" s="9">
-        <v>3782.73</v>
+        <v>3869.75</v>
       </c>
       <c r="H9" s="6">
-        <v>47</v>
+        <v>47.86</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1114,9 +1095,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
@@ -1128,21 +1106,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>926.71</v>
+        <v>925.84</v>
       </c>
       <c r="G10" s="9">
-        <v>2856.02</v>
+        <v>2943.91</v>
       </c>
       <c r="H10" s="6">
-        <v>37.83</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1160,9 +1138,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
@@ -1174,21 +1149,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>935.98</v>
+        <v>935.1</v>
       </c>
       <c r="G11" s="9">
-        <v>1920.04</v>
+        <v>2008.81</v>
       </c>
       <c r="H11" s="6">
-        <v>28.56</v>
+        <v>29.44</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1206,9 +1181,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
@@ -1220,21 +1192,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>945.34</v>
-      </c>
-      <c r="G12" s="6">
-        <v>974.7</v>
+        <v>944.45</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1064.3599999999999</v>
       </c>
       <c r="H12" s="6">
-        <v>19.2</v>
+        <v>20.09</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1252,9 +1224,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
@@ -1266,21 +1235,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <v>974.7</v>
+      <c r="F13" s="9">
+        <v>1064.3599999999999</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>9.75</v>
+        <v>10.64</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1288,8 +1257,8 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="6">
-        <v>984.45</v>
+      <c r="K13" s="8">
+        <v>1075</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -1300,11 +1269,8 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>984.45</v>
+      <c r="P13" s="8">
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1284,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1336,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>120</v>
+        <v>6352</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1404,7 +1370,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>118</v>
+        <v>6350</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2437-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DELETE-VAR-INST-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2437-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-DELETE-VAR-INST-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,6 +251,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -293,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,10 +737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,12 +758,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,17 +804,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -797,8 +841,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -836,14 +881,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -879,14 +925,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -922,14 +969,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -965,14 +1013,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1008,14 +1057,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1051,14 +1101,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1094,14 +1145,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1137,14 +1189,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1180,14 +1233,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1223,14 +1277,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>964.54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>964.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1266,10 +1321,11 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
         <v>1075</v>
       </c>
     </row>
@@ -1283,7 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
